--- a/downloaded_files/PHYS102_Tutorial-35335.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35335.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Hossam Eldin Mohammad Ahmed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1240369</x:t>
@@ -425,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1520,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4460903935</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4460903935</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4370927894</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4370927894</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1793,6 +1802,38 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35335.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35335.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Islam Ayman Ahmed Mohamed Beledy</x:t>
   </x:si>
   <x:si>
+    <x:t>1240030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اواب تامر ذكريا المغازى الشهاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِAwab Tamer Zakaria</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240039</x:t>
   </x:si>
   <x:si>
@@ -78,6 +87,15 @@
     <x:t>Hazem Moataz-Bellah Elhariry</x:t>
   </x:si>
   <x:si>
+    <x:t>1240315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد محمد مجدي محمود احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeiad mohamed magdy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240224</x:t>
   </x:si>
   <x:si>
@@ -193,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Kareem Atef Abdelfatah Sheta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230085</x:t>
@@ -434,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -889,7 +916,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6656646644</x:v>
+        <x:v>45920.1161700579</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -921,7 +948,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4195776273</x:v>
+        <x:v>45907.6656646644</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -953,7 +980,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4208417477</x:v>
+        <x:v>45908.4195776273</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -985,7 +1012,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45908.4208417477</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1017,7 +1044,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45920.0617455208</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1049,7 +1076,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4343585995</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1081,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1113,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45908.4343585995</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.5483252662</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45914.5483252662</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.7408480671</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.0996156597</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45920.0243170486</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45912.0996156597</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4460903935</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4370927894</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4460903935</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45908.4370927894</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1835,6 +1862,102 @@
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
     </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45908.4151152778</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6761571759</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1847,6 +1970,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Modern Physics (PHYS102) Location : [20511]20511-45-الجيزة الرئيسي Time : Tuesday(14:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/PHYS102_Tutorial-35335.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35335.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Kareem Atef Abdelfatah Sheta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230085</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1492,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45920.0243170486</x:v>
+        <x:v>45912.0996156597</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.0996156597</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45908.4460903935</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4460903935</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4370927894</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4370927894</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45908.4155164352</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35335.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35335.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelarhman Yasser Mohamed Elsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله فريد عبدالله محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240090</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1195,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.5483252662</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45914.5483252662</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45907.7408480671</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.0996156597</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45912.0996156597</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4460903935</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4460903935</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4370927894</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4370927894</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35335.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35335.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ahmed Abd ELFattah Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر حاتم محمد محمود الفحل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hatem Mohamed Mahmoud Elfahl</x:t>
   </x:si>
   <x:si>
     <x:t>1240242</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1332,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45922.4940454861</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45907.7408480671</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.0996156597</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45912.0996156597</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4460903935</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4460903935</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4370927894</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4370927894</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35335.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35335.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,6 +87,15 @@
     <x:t>Hazem Moataz-Bellah Elhariry</x:t>
   </x:si>
   <x:si>
+    <x:t>4250173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد سعد محمد موسى احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Saad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240315</x:t>
   </x:si>
   <x:si>
@@ -265,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Hossam Eldin Mohammad Ahmed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حمزه محمد زعزوع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed Hamza Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>4250195</x:t>
@@ -470,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1053,7 +1071,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45920.0617455208</x:v>
+        <x:v>45923.4748417824</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1085,7 +1103,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45920.0617455208</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1117,7 +1135,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1149,7 +1167,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4343585995</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1181,7 +1199,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45908.4343585995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1213,7 +1231,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1263,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4160626968</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1295,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5483252662</x:v>
+        <x:v>45908.4160626968</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1327,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45914.5483252662</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1359,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45922.4940454861</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1391,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45922.4940454861</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1423,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1455,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1487,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45907.7408480671</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1519,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1551,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1583,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.0996156597</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1615,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45912.0996156597</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1647,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1679,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1711,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1743,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1775,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1807,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1839,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4460903935</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1871,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1903,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4370927894</x:v>
+        <x:v>45908.4460903935</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1935,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45908.4370927894</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2016,70 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.6761571759</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35335.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35335.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,15 +202,6 @@
   </x:si>
   <x:si>
     <x:t>Omar mohamed kamal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو محمد سعيد حسن عبد الفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amr Mohamed Saied Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240403</x:t>
@@ -488,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1487,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.7408480671</x:v>
+        <x:v>45918.5340381944</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1519,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.5340381944</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1551,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45912.0996156597</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.0996156597</x:v>
+        <x:v>45907.6707647338</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6707647338</x:v>
+        <x:v>45907.6722659375</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6722659375</x:v>
+        <x:v>45907.6659424769</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6659424769</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45923.5143698264</x:v>
+        <x:v>45919.730215625</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45919.730215625</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45908.4460903935</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4460903935</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4370927894</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4370927894</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1999,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2031,7 +2022,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2048,38 +2039,6 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45908.4155164352</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35335.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35335.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم أحمد محمود سامى بشر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mariam ahmed mahmoud samy bishr</x:t>
   </x:si>
   <x:si>
     <x:t>1240369</x:t>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1766,7 +1775,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.6079923264</x:v>
+        <x:v>45928.4171150463</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1807,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45908.6079923264</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1839,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4170861111</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4460903935</x:v>
+        <x:v>45908.4170861111</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6677262384</x:v>
+        <x:v>45908.4460903935</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1935,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4370927894</x:v>
+        <x:v>45907.6677262384</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4151152778</x:v>
+        <x:v>45908.4370927894</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6761571759</x:v>
+        <x:v>45908.4151152778</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2022,7 +2031,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45907.6761571759</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2039,6 +2048,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45908.4155164352</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Tutorial-35335.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35335.xlsx
@@ -2086,11 +2086,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Modern Physics (PHYS102) Location : [20511]20511-45-الجيزة الرئيسي Time : Tuesday(14:17)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Modern Physics (PHYS102) Location : [20503]20503-45-الجيزة الرئيسي Time : Tuesday(14:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Modern Physics (PHYS102) Location : [20511]20511-45-الجيزة الرئيسي Time : Tuesday(14:17)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Modern Physics (PHYS102) Location : [20503]20503-45-الجيزة الرئيسي Time : Tuesday(14:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Modern Physics (PHYS102) Location : [20511]20511-45-الجيزة الرئيسي Time : Tuesday(14:17)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Modern Physics (PHYS102) Location : [20503]20503-45-الجيزة الرئيسي Time : Tuesday(14:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">
